--- a/PA5/data.xlsx
+++ b/PA5/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifeiliang/Documents/GitHub/CSCE_313/PA4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifeiliang/Documents/GitHub/CSCE_313/PA5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5855D43-3DB6-5041-9318-4DE708D67595}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE86B47-D79F-314A-9A42-883F0AAA080C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="900" windowWidth="27680" windowHeight="17040" xr2:uid="{E77415BB-A5E2-DE45-B6D5-339EFD4873D3}"/>
+    <workbookView xWindow="4320" yWindow="460" windowWidth="19220" windowHeight="17040" xr2:uid="{E77415BB-A5E2-DE45-B6D5-339EFD4873D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,13 +180,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14226790976281339"/>
+          <c:y val="0.15456954866943001"/>
+          <c:w val="0.64938833872759771"/>
+          <c:h val="0.63327488173567348"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>FIFO</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -213,10 +226,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -246,75 +259,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>320406</c:v>
+                  <c:v>632405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>590211</c:v>
+                  <c:v>1287934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>903925</c:v>
+                  <c:v>1841791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1213263</c:v>
+                  <c:v>2232751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1491052</c:v>
+                  <c:v>2751761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1925559</c:v>
+                  <c:v>3051581</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2245154</c:v>
+                  <c:v>3343484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2565379</c:v>
+                  <c:v>4051751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2884885</c:v>
+                  <c:v>4220339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3206194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3525700</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3844872</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4165278</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4486684</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4807090</c:v>
+                  <c:v>4506194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,6 +306,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1BBA-A244-8CAD-422C518A713F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$21:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>572237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>983731</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1483731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2283731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2783731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3183731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3583731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3983731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4383731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D791-6840-A101-BC776C8323D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -755,6 +853,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>FIFO</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -825,34 +926,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6034242</c:v>
+                  <c:v>6834242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6424242</c:v>
+                  <c:v>6924242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6447365</c:v>
+                  <c:v>6747365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6424119</c:v>
+                  <c:v>6824119</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6636654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6424242</c:v>
+                  <c:v>6924242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6426554</c:v>
+                  <c:v>6726554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6424242</c:v>
+                  <c:v>6924242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6447365</c:v>
+                  <c:v>6647365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6424242</c:v>
+                  <c:v>6824242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,6 +962,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF4F-5140-B613-A0DB113361A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$28:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$28:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6534242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6424242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6647365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6524119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6236654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6524242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6526554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6424242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6547365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6424242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D24C-A545-9508-210EC6F575DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1278,6 +1494,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>FIFO</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1304,84 +1523,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$12</c:f>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$12</c:f>
+              <c:f>Sheet1!$S$2:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>69026010</c:v>
+                  <c:v>59026010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13026010</c:v>
+                  <c:v>29026010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11022141</c:v>
+                  <c:v>20026010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9098512</c:v>
+                  <c:v>15026010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8053623</c:v>
+                  <c:v>12026010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7012342</c:v>
+                  <c:v>10022141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6123122</c:v>
+                  <c:v>9898512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6522122</c:v>
+                  <c:v>7953623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6812342</c:v>
+                  <c:v>7312342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6813452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7813452</c:v>
+                  <c:v>6623122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,6 +1603,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6F2C-5947-B5C3-4F05C98AA22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$28:$R$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$28:$T$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59726010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29826010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19826010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15066010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12066010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10066010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8066010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7790587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7590587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6490587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F968-AA45-A4C7-6A090245A73C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1841,6 +2169,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>FIFO</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1902,25 +2233,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>374493</c:v>
+                  <c:v>471723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181557</c:v>
+                  <c:v>325787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122953</c:v>
+                  <c:v>248626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96013</c:v>
+                  <c:v>227117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86953</c:v>
+                  <c:v>228345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62728</c:v>
+                  <c:v>229665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51073</c:v>
+                  <c:v>229043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,6 +2260,103 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8FF7-BB49-A1E1-1A5E012BA3B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$29:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$29:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>442722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>214534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F006-7C44-BC0C-29B246035F8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2348,6 +2776,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>FIFO</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2394,28 +2825,22 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,43 +2852,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>138789</c:v>
+                  <c:v>66656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93505</c:v>
+                  <c:v>68902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87359</c:v>
+                  <c:v>69833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74280</c:v>
+                  <c:v>71969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57348</c:v>
+                  <c:v>72030</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56441</c:v>
+                  <c:v>128011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68669</c:v>
+                  <c:v>135692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77699</c:v>
+                  <c:v>158580</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91676</c:v>
+                  <c:v>192893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122067</c:v>
+                  <c:v>208354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>153982</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>171052</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200834</c:v>
+                  <c:v>224722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,6 +2891,127 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8AD0-3D4C-ABD6-A970B091A2EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MQ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$36:$Z$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$36:$AA$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>219691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C219-384B-8188-6F131952A686}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2599,6 +3139,608 @@
         <c:axId val="1323890368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324088480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Varing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>B(File</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Transfer)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$1:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$1:$AG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>235796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>239004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>235221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E05-D94B-B279-0F2ED314BA67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$19:$AF$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$19:$AG$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>225736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>230328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E05-D94B-B279-0F2ED314BA67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1324088480"/>
+        <c:axId val="1323890368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1324088480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>W</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323890368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1323890368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2996,6 +4138,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5576,20 +6758,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>772584</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>169334</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>103717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5616,16 +7314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5653,15 +7351,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5689,15 +7387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5724,16 +7422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5753,6 +7451,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3432BF-45EF-A54B-BC18-0DB31D3B9D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6058,15 +7794,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53106EF7-FD51-DC48-AFE0-CDB545C17D26}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6083,150 +7819,175 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" s="1">
-        <v>320406</v>
+        <v>632405</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
       <c r="N2">
-        <f xml:space="preserve"> 1000000 *6 + 34242</f>
-        <v>6034242</v>
+        <f xml:space="preserve"> 1000000 *6 + 834242</f>
+        <v>6834242</v>
       </c>
       <c r="R2">
         <v>10</v>
       </c>
       <c r="S2">
-        <f>1000000*69 + 26010</f>
-        <v>69026010</v>
+        <f>1000000*59 + 26010</f>
+        <v>59026010</v>
       </c>
       <c r="V2">
         <v>50</v>
       </c>
       <c r="W2" s="1">
-        <v>374493</v>
+        <v>471723</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>138789</v>
+        <v>66656</v>
+      </c>
+      <c r="AF2">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>235796</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <v>590211</v>
+        <f>632405*2 + 23124</f>
+        <v>1287934</v>
       </c>
       <c r="M3">
         <v>200</v>
       </c>
       <c r="N3">
-        <f xml:space="preserve"> 1000000 *6 + 424242</f>
-        <v>6424242</v>
+        <f xml:space="preserve"> 1000000 *6 + 924242</f>
+        <v>6924242</v>
       </c>
       <c r="R3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="S3">
-        <f>1000000*13 + 26010</f>
-        <v>13026010</v>
+        <f>1000000*29 + 26010</f>
+        <v>29026010</v>
       </c>
       <c r="V3">
         <v>100</v>
       </c>
       <c r="W3" s="1">
-        <v>181557</v>
+        <v>325787</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3" s="1">
-        <v>93505</v>
+        <v>68902</v>
+      </c>
+      <c r="AF3">
+        <v>200</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>224765</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>3000</v>
       </c>
       <c r="B4" s="1">
-        <v>903925</v>
+        <f>1520339 + 321452</f>
+        <v>1841791</v>
       </c>
       <c r="M4">
         <v>300</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> 1000000 *6 + 424242 + 23123</f>
-        <v>6447365</v>
+        <f xml:space="preserve"> 1000000 *6 + 724242 + 23123</f>
+        <v>6747365</v>
       </c>
       <c r="R4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S4">
-        <f>1000000*11 + 22141</f>
-        <v>11022141</v>
+        <f>1000000*20 + 26010</f>
+        <v>20026010</v>
       </c>
       <c r="V4">
         <v>200</v>
       </c>
       <c r="W4" s="1">
-        <v>122953</v>
+        <v>248626</v>
       </c>
       <c r="Z4">
         <v>3</v>
       </c>
       <c r="AA4" s="1">
-        <v>87359</v>
+        <v>69833</v>
+      </c>
+      <c r="AF4">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>225560</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>4000</v>
       </c>
       <c r="B5" s="1">
-        <f>1000000 + 213263</f>
-        <v>1213263</v>
+        <f>1920339+312412</f>
+        <v>2232751</v>
       </c>
       <c r="M5">
         <v>400</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> 1000000 *6 + 424242 -123</f>
-        <v>6424119</v>
+        <f xml:space="preserve"> 1000000 *6 + 824242 -123</f>
+        <v>6824119</v>
       </c>
       <c r="R5">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="S5">
-        <f>1000000*9 + 98512</f>
-        <v>9098512</v>
+        <v>15026010</v>
       </c>
       <c r="V5">
         <v>300</v>
       </c>
       <c r="W5" s="1">
-        <v>96013</v>
+        <v>227117</v>
       </c>
       <c r="Z5">
         <v>4</v>
       </c>
       <c r="AA5" s="1">
-        <v>74280</v>
+        <v>71969</v>
+      </c>
+      <c r="AF5">
+        <v>400</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>221906</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>5000</v>
       </c>
       <c r="B6">
-        <f>1000000+491052</f>
-        <v>1491052</v>
+        <f>2520339+231422</f>
+        <v>2751761</v>
       </c>
       <c r="M6">
         <v>500</v>
@@ -6236,249 +7997,617 @@
         <v>6636654</v>
       </c>
       <c r="R6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="S6">
-        <f>1000000*8 + 53623</f>
-        <v>8053623</v>
+        <f>1000000*12 + 26010</f>
+        <v>12026010</v>
       </c>
       <c r="V6">
         <v>400</v>
       </c>
       <c r="W6" s="1">
-        <v>86953</v>
+        <v>228345</v>
       </c>
       <c r="Z6">
         <v>10</v>
       </c>
       <c r="AA6" s="1">
-        <v>57348</v>
+        <v>72030</v>
+      </c>
+      <c r="AF6">
+        <v>500</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>239004</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>6000</v>
       </c>
       <c r="B7">
-        <f>320406 * 6 + 3123</f>
-        <v>1925559</v>
+        <f>2820339+231242</f>
+        <v>3051581</v>
       </c>
       <c r="M7">
         <v>600</v>
       </c>
       <c r="N7">
+        <f xml:space="preserve"> 1000000 *6 + 924242</f>
+        <v>6924242</v>
+      </c>
+      <c r="R7">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <f>1000000*10 + 22141</f>
+        <v>10022141</v>
+      </c>
+      <c r="V7">
+        <v>500</v>
+      </c>
+      <c r="W7" s="1">
+        <v>229665</v>
+      </c>
+      <c r="Z7">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>128011</v>
+      </c>
+      <c r="AF7">
+        <v>600</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>226100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+      <c r="B8">
+        <f>3320339+23145</f>
+        <v>3343484</v>
+      </c>
+      <c r="M8">
+        <v>700</v>
+      </c>
+      <c r="N8">
+        <f xml:space="preserve"> 1000000 *6 + 724242+2312</f>
+        <v>6726554</v>
+      </c>
+      <c r="R8">
+        <v>70</v>
+      </c>
+      <c r="S8">
+        <f>1000000*9 + 898512</f>
+        <v>9898512</v>
+      </c>
+      <c r="V8">
+        <v>600</v>
+      </c>
+      <c r="W8" s="1">
+        <v>229043</v>
+      </c>
+      <c r="Z8">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>135692</v>
+      </c>
+      <c r="AF8">
+        <v>700</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>235221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9">
+        <v>8000</v>
+      </c>
+      <c r="B9">
+        <f>3820339+231412</f>
+        <v>4051751</v>
+      </c>
+      <c r="M9">
+        <v>800</v>
+      </c>
+      <c r="N9">
+        <f xml:space="preserve"> 1000000 *6 + 924242</f>
+        <v>6924242</v>
+      </c>
+      <c r="R9">
+        <v>80</v>
+      </c>
+      <c r="S9">
+        <f>1000000*7 + 953623</f>
+        <v>7953623</v>
+      </c>
+      <c r="Z9">
+        <v>70</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>158580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10">
+        <v>9000</v>
+      </c>
+      <c r="B10">
+        <f>4220339</f>
+        <v>4220339</v>
+      </c>
+      <c r="M10">
+        <v>900</v>
+      </c>
+      <c r="N10">
+        <f xml:space="preserve"> 1000000 *6 + 624242 +23123</f>
+        <v>6647365</v>
+      </c>
+      <c r="R10">
+        <v>90</v>
+      </c>
+      <c r="S10">
+        <f>1000000*7 + 312342</f>
+        <v>7312342</v>
+      </c>
+      <c r="Z10">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>192893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <f>450406*10 + 2134</f>
+        <v>4506194</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <f xml:space="preserve"> 1000000 *6 + 824242</f>
+        <v>6824242</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <f>1000000*6 + 623122</f>
+        <v>6623122</v>
+      </c>
+      <c r="Z11">
+        <v>90</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>208354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="Z12">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>224722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="AF19">
+        <v>100</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>225736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="AF20">
+        <v>200</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>221803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>572237</v>
+      </c>
+      <c r="AF21">
+        <v>300</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>228645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>983731</v>
+      </c>
+      <c r="AF22">
+        <v>400</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>221350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23">
+        <v>3000</v>
+      </c>
+      <c r="B23">
+        <v>1483731</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="AF23">
+        <v>500</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>233250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24">
+        <v>4000</v>
+      </c>
+      <c r="B24">
+        <v>1983731</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="AF24">
+        <v>600</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>241062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25">
+        <v>5000</v>
+      </c>
+      <c r="B25">
+        <v>2283731</v>
+      </c>
+      <c r="AF25">
+        <v>700</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>230328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26">
+        <v>6000</v>
+      </c>
+      <c r="B26">
+        <v>2783731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27">
+        <v>7000</v>
+      </c>
+      <c r="B27">
+        <v>3183731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28">
+        <v>8000</v>
+      </c>
+      <c r="B28">
+        <v>3583731</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <f xml:space="preserve"> 1000000 *6 + 534242</f>
+        <v>6534242</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <f>1000000*59 + 726010</f>
+        <v>59726010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29">
+        <v>9000</v>
+      </c>
+      <c r="B29">
+        <v>3983731</v>
+      </c>
+      <c r="M29">
+        <v>200</v>
+      </c>
+      <c r="N29">
         <f xml:space="preserve"> 1000000 *6 + 424242</f>
         <v>6424242</v>
       </c>
-      <c r="R7">
-        <v>90</v>
-      </c>
-      <c r="S7">
-        <f>1000000*7 + 12342</f>
-        <v>7012342</v>
-      </c>
-      <c r="V7">
+      <c r="R29">
+        <v>20</v>
+      </c>
+      <c r="T29">
+        <f>1000000*29 + 826010</f>
+        <v>29826010</v>
+      </c>
+      <c r="V29">
+        <v>50</v>
+      </c>
+      <c r="W29" s="1">
+        <v>442722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30">
+        <v>10000</v>
+      </c>
+      <c r="B30">
+        <v>4383731</v>
+      </c>
+      <c r="M30">
+        <v>300</v>
+      </c>
+      <c r="N30">
+        <f xml:space="preserve"> 1000000 *6 + 624242 + 23123</f>
+        <v>6647365</v>
+      </c>
+      <c r="R30">
+        <v>30</v>
+      </c>
+      <c r="T30">
+        <f>1000000*19 + 826010</f>
+        <v>19826010</v>
+      </c>
+      <c r="V30">
+        <v>100</v>
+      </c>
+      <c r="W30" s="1">
+        <v>317699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="M31">
+        <v>400</v>
+      </c>
+      <c r="N31">
+        <f xml:space="preserve"> 1000000 *6 + 524242 -123</f>
+        <v>6524119</v>
+      </c>
+      <c r="R31">
+        <v>40</v>
+      </c>
+      <c r="T31">
+        <v>15066010</v>
+      </c>
+      <c r="V31">
+        <v>200</v>
+      </c>
+      <c r="W31" s="1">
+        <v>235921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="M32">
         <v>500</v>
       </c>
-      <c r="W7" s="1">
-        <v>62728</v>
-      </c>
-      <c r="Z7">
-        <v>20</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>56441</v>
+      <c r="N32">
+        <f xml:space="preserve"> 1000000 *6 + 24242+212412</f>
+        <v>6236654</v>
+      </c>
+      <c r="R32">
+        <v>50</v>
+      </c>
+      <c r="T32">
+        <v>12066010</v>
+      </c>
+      <c r="V32">
+        <v>300</v>
+      </c>
+      <c r="W32" s="1">
+        <v>235569</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7000</v>
-      </c>
-      <c r="B8">
-        <f>7*320406+2312</f>
-        <v>2245154</v>
-      </c>
-      <c r="M8">
+    <row r="33" spans="13:27">
+      <c r="M33">
+        <v>600</v>
+      </c>
+      <c r="N33">
+        <f xml:space="preserve"> 1000000 *6 + 524242</f>
+        <v>6524242</v>
+      </c>
+      <c r="R33">
+        <v>60</v>
+      </c>
+      <c r="T33">
+        <v>10066010</v>
+      </c>
+      <c r="V33">
+        <v>400</v>
+      </c>
+      <c r="W33" s="1">
+        <v>227698</v>
+      </c>
+    </row>
+    <row r="34" spans="13:27">
+      <c r="M34">
         <v>700</v>
       </c>
-      <c r="N8">
-        <f xml:space="preserve"> 1000000 *6 + 424242+2312</f>
-        <v>6426554</v>
-      </c>
-      <c r="R8">
-        <v>100</v>
-      </c>
-      <c r="S8">
-        <f>1000000*6 + 123122</f>
-        <v>6123122</v>
-      </c>
-      <c r="V8">
-        <v>600</v>
-      </c>
-      <c r="W8" s="1">
-        <v>51073</v>
-      </c>
-      <c r="Z8">
-        <v>50</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>68669</v>
+      <c r="N34">
+        <f xml:space="preserve"> 1000000 *6 + 524242+2312</f>
+        <v>6526554</v>
+      </c>
+      <c r="R34">
+        <v>70</v>
+      </c>
+      <c r="T34">
+        <v>8066010</v>
+      </c>
+      <c r="V34">
+        <v>500</v>
+      </c>
+      <c r="W34" s="1">
+        <v>214534</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8000</v>
-      </c>
-      <c r="B9">
-        <f>320406*8+2131</f>
-        <v>2565379</v>
-      </c>
-      <c r="M9">
+    <row r="35" spans="13:27">
+      <c r="M35">
         <v>800</v>
       </c>
-      <c r="N9">
+      <c r="N35">
         <f xml:space="preserve"> 1000000 *6 + 424242</f>
         <v>6424242</v>
       </c>
-      <c r="R9">
-        <v>200</v>
-      </c>
-      <c r="S9">
-        <f>6522122</f>
-        <v>6522122</v>
-      </c>
-      <c r="Z9">
-        <v>100</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>77699</v>
+      <c r="R35">
+        <v>80</v>
+      </c>
+      <c r="T35" s="1">
+        <v>7790587</v>
+      </c>
+      <c r="V35">
+        <v>600</v>
+      </c>
+      <c r="W35" s="1">
+        <v>213518</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9000</v>
-      </c>
-      <c r="B10">
-        <f>320406*9+1231</f>
-        <v>2884885</v>
-      </c>
-      <c r="M10">
+    <row r="36" spans="13:27">
+      <c r="M36">
         <v>900</v>
       </c>
-      <c r="N10">
-        <f xml:space="preserve"> 1000000 *6 + 424242 +23123</f>
-        <v>6447365</v>
-      </c>
-      <c r="R10">
-        <v>300</v>
-      </c>
-      <c r="S10">
-        <f>6812342</f>
-        <v>6812342</v>
-      </c>
-      <c r="Z10">
-        <v>200</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>91676</v>
+      <c r="N36">
+        <f xml:space="preserve"> 1000000 *6 + 524242 +23123</f>
+        <v>6547365</v>
+      </c>
+      <c r="R36">
+        <v>90</v>
+      </c>
+      <c r="T36" s="1">
+        <v>7590587</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>65587</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10000</v>
-      </c>
-      <c r="B11">
-        <f>320406*10 + 2134</f>
-        <v>3206194</v>
-      </c>
-      <c r="M11">
+    <row r="37" spans="13:27">
+      <c r="M37">
         <v>1000</v>
       </c>
-      <c r="N11">
+      <c r="N37">
         <f xml:space="preserve"> 1000000 *6 + 424242</f>
         <v>6424242</v>
       </c>
-      <c r="R11">
-        <v>500</v>
-      </c>
-      <c r="S11">
-        <v>6813452</v>
-      </c>
-      <c r="Z11">
-        <v>300</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>122067</v>
+      <c r="R37">
+        <v>100</v>
+      </c>
+      <c r="T37">
+        <v>6490587</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>70565</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11000</v>
-      </c>
-      <c r="B12">
-        <f>11*320406+1234</f>
-        <v>3525700</v>
-      </c>
-      <c r="R12">
-        <f>600</f>
-        <v>600</v>
-      </c>
-      <c r="S12">
-        <v>7813452</v>
-      </c>
-      <c r="Z12">
-        <v>400</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>153982</v>
+    <row r="38" spans="13:27">
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>70475</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12000</v>
-      </c>
-      <c r="B13">
-        <f>12*320406</f>
-        <v>3844872</v>
-      </c>
-      <c r="Z13">
-        <v>500</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>171052</v>
+    <row r="39" spans="13:27">
+      <c r="Z39">
+        <v>4</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>70813</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13000</v>
-      </c>
-      <c r="B14">
-        <f>13*320406</f>
-        <v>4165278</v>
-      </c>
-      <c r="Z14">
-        <v>600</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>200834</v>
+    <row r="40" spans="13:27">
+      <c r="Z40">
+        <v>10</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>69545</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14000</v>
-      </c>
-      <c r="B15">
-        <f>320406 * 14 + 1000</f>
-        <v>4486684</v>
+    <row r="41" spans="13:27">
+      <c r="Z41">
+        <v>50</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>115615</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15000</v>
-      </c>
-      <c r="B16">
-        <f>320406 * 15 + 1000</f>
-        <v>4807090</v>
+    <row r="42" spans="13:27">
+      <c r="Z42">
+        <v>60</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>131397</v>
+      </c>
+    </row>
+    <row r="43" spans="13:27">
+      <c r="Z43">
+        <v>70</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>154993</v>
+      </c>
+    </row>
+    <row r="44" spans="13:27">
+      <c r="Z44">
+        <v>80</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>211371</v>
+      </c>
+    </row>
+    <row r="45" spans="13:27">
+      <c r="Z45">
+        <v>90</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>195498</v>
+      </c>
+    </row>
+    <row r="46" spans="13:27">
+      <c r="Z46">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>219691</v>
       </c>
     </row>
   </sheetData>

--- a/PA5/data.xlsx
+++ b/PA5/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifeiliang/Documents/GitHub/CSCE_313/PA5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE86B47-D79F-314A-9A42-883F0AAA080C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA54D19-0AAF-6C40-90F9-7710724060F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="460" windowWidth="19220" windowHeight="17040" xr2:uid="{E77415BB-A5E2-DE45-B6D5-339EFD4873D3}"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="19220" windowHeight="17040" xr2:uid="{E77415BB-A5E2-DE45-B6D5-339EFD4873D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,34 +271,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>632405</c:v>
+                  <c:v>530200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1287934</c:v>
+                  <c:v>869204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1841791</c:v>
+                  <c:v>1298370</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2232751</c:v>
+                  <c:v>1719638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2751761</c:v>
+                  <c:v>2120678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3051581</c:v>
+                  <c:v>2520678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3343484</c:v>
+                  <c:v>3120678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4051751</c:v>
+                  <c:v>3520678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4220339</c:v>
+                  <c:v>3920678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4506194</c:v>
+                  <c:v>4320678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,34 +386,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>572237</c:v>
+                  <c:v>402249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>983731</c:v>
+                  <c:v>803586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1483731</c:v>
+                  <c:v>1283731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983731</c:v>
+                  <c:v>1683731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2283731</c:v>
+                  <c:v>2083731</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2783731</c:v>
+                  <c:v>2483731</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3183731</c:v>
+                  <c:v>2883731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3583731</c:v>
+                  <c:v>3283731</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3683731</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3983731</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4383731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,6 +422,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D791-6840-A101-BC776C8323D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>405042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>803831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1203731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1603731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2403731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2803731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3203731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3603731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4320678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C31A-6046-8976-78C69F0E61D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,34 +1042,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6834242</c:v>
+                  <c:v>6134242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6924242</c:v>
+                  <c:v>6157366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6747365</c:v>
+                  <c:v>6132111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6824119</c:v>
+                  <c:v>6157366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6636654</c:v>
+                  <c:v>6365494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6924242</c:v>
+                  <c:v>6137366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6726554</c:v>
+                  <c:v>6180589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6924242</c:v>
+                  <c:v>6129119</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6647365</c:v>
+                  <c:v>6110117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6824242</c:v>
+                  <c:v>6134242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,34 +1157,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6534242</c:v>
+                  <c:v>6002312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6424242</c:v>
+                  <c:v>6231252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6647365</c:v>
+                  <c:v>6023124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6524119</c:v>
+                  <c:v>6054743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6236654</c:v>
+                  <c:v>6024136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6524242</c:v>
+                  <c:v>6024125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6526554</c:v>
+                  <c:v>6004657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6424242</c:v>
+                  <c:v>6003647</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6547365</c:v>
+                  <c:v>6023125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6424242</c:v>
+                  <c:v>6024126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,6 +1193,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D24C-A545-9508-210EC6F575DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$41:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$41:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6026436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6208128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6046249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6031619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6047261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6047249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5981533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5980522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6046250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6026689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D34-DC42-8DA8-A6C6F5CF5C44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1682,28 +1913,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>59726010</c:v>
+                  <c:v>55596010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29826010</c:v>
+                  <c:v>26926010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19826010</c:v>
+                  <c:v>17926010</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15066010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12066010</c:v>
+                  <c:v>13272611.000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10066010</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8066010</c:v>
+                  <c:v>7259409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7790587</c:v>
+                  <c:v>7011528.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7590587</c:v>
@@ -1718,6 +1949,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F968-AA45-A4C7-6A090245A73C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$42:$R$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$42:$S$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59026010.899999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31926010.000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18026010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13523409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12026010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9022141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8998512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7253623</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7312342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6623122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6C4-3D43-982E-2BE17F0B8856}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2233,25 +2579,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>471723</c:v>
+                  <c:v>73748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325787</c:v>
+                  <c:v>39653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248626</c:v>
+                  <c:v>24040</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227117</c:v>
+                  <c:v>17759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>228345</c:v>
+                  <c:v>15886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>229665</c:v>
+                  <c:v>14005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229043</c:v>
+                  <c:v>13228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,25 +2676,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>442722</c:v>
+                  <c:v>79395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>317699</c:v>
+                  <c:v>38561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235921</c:v>
+                  <c:v>22833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235569</c:v>
+                  <c:v>19783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>227698</c:v>
+                  <c:v>14576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>214534</c:v>
+                  <c:v>12612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>213518</c:v>
+                  <c:v>12889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,6 +2703,103 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F006-7C44-BC0C-29B246035F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$39:$V$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$39:$W$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>80831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFBE-7B4B-B806-E3C9629FBBF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2852,37 +3295,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>66656</c:v>
+                  <c:v>54976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68902</c:v>
+                  <c:v>26460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69833</c:v>
+                  <c:v>16838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71969</c:v>
+                  <c:v>9727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72030</c:v>
+                  <c:v>9877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128011</c:v>
+                  <c:v>15988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135692</c:v>
+                  <c:v>22942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>158580</c:v>
+                  <c:v>17474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>192893</c:v>
+                  <c:v>18727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208354</c:v>
+                  <c:v>23029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>224722</c:v>
+                  <c:v>23017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2973,37 +3416,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>65587</c:v>
+                  <c:v>54865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70565</c:v>
+                  <c:v>30622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70475</c:v>
+                  <c:v>23004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70813</c:v>
+                  <c:v>16290</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69545</c:v>
+                  <c:v>10474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115615</c:v>
+                  <c:v>14532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131397</c:v>
+                  <c:v>20147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>154993</c:v>
+                  <c:v>16677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>211371</c:v>
+                  <c:v>19079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>195498</c:v>
+                  <c:v>22510</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>219691</c:v>
+                  <c:v>22331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,6 +3455,127 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C219-384B-8188-6F131952A686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$48:$Z$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$48:$AA$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>54267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22430</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D6B-D844-81E1-14627F7352C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3431,6 +3995,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>FIFO</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3492,25 +4059,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>235796</c:v>
+                  <c:v>19677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224765</c:v>
+                  <c:v>20389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225560</c:v>
+                  <c:v>19851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221906</c:v>
+                  <c:v>19199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>239004</c:v>
+                  <c:v>20060</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>226100</c:v>
+                  <c:v>19283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>235221</c:v>
+                  <c:v>22816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3525,6 +4092,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>MQ</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3586,25 +4156,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225736</c:v>
+                  <c:v>19278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221803</c:v>
+                  <c:v>21761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>228645</c:v>
+                  <c:v>22553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221350</c:v>
+                  <c:v>20781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233250</c:v>
+                  <c:v>18427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>241062</c:v>
+                  <c:v>19411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>230328</c:v>
+                  <c:v>18980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,6 +4183,103 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9E05-D94B-B279-0F2ED314BA67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$30:$AF$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$30:$AG$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C602-7445-9234-FE12F2791DAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7279,15 +7946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>772584</xdr:colOff>
+      <xdr:colOff>772583</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103717</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7350,16 +8017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479777</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7387,15 +8054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7794,15 +8461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53106EF7-FD51-DC48-AFE0-CDB545C17D26}">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7819,19 +8486,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" s="1">
-        <v>632405</v>
+        <f>265100*2</f>
+        <v>530200</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
       <c r="N2">
-        <f xml:space="preserve"> 1000000 *6 + 834242</f>
-        <v>6834242</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242</f>
+        <v>6134242</v>
       </c>
       <c r="R2">
         <v>10</v>
@@ -7844,35 +8512,35 @@
         <v>50</v>
       </c>
       <c r="W2" s="1">
-        <v>471723</v>
+        <v>73748</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>66656</v>
+        <v>54976</v>
       </c>
       <c r="AF2">
         <v>100</v>
       </c>
       <c r="AG2" s="1">
-        <v>235796</v>
+        <v>19677</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <f>632405*2 + 23124</f>
-        <v>1287934</v>
+        <f>2*434602</f>
+        <v>869204</v>
       </c>
       <c r="M3">
         <v>200</v>
       </c>
       <c r="N3">
-        <f xml:space="preserve"> 1000000 *6 + 924242</f>
-        <v>6924242</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242 + 23124</f>
+        <v>6157366</v>
       </c>
       <c r="R3">
         <v>20</v>
@@ -7885,35 +8553,35 @@
         <v>100</v>
       </c>
       <c r="W3" s="1">
-        <v>325787</v>
+        <v>39653</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3" s="1">
-        <v>68902</v>
+        <v>26460</v>
       </c>
       <c r="AF3">
         <v>200</v>
       </c>
       <c r="AG3" s="1">
-        <v>224765</v>
+        <v>20389</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3000</v>
       </c>
       <c r="B4" s="1">
-        <f>1520339 + 321452</f>
-        <v>1841791</v>
+        <f>2*649185</f>
+        <v>1298370</v>
       </c>
       <c r="M4">
         <v>300</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> 1000000 *6 + 724242 + 23123</f>
-        <v>6747365</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242-2131</f>
+        <v>6132111</v>
       </c>
       <c r="R4">
         <v>30</v>
@@ -7926,35 +8594,35 @@
         <v>200</v>
       </c>
       <c r="W4" s="1">
-        <v>248626</v>
+        <v>24040</v>
       </c>
       <c r="Z4">
         <v>3</v>
       </c>
       <c r="AA4" s="1">
-        <v>69833</v>
+        <v>16838</v>
       </c>
       <c r="AF4">
         <v>300</v>
       </c>
       <c r="AG4" s="1">
-        <v>225560</v>
+        <v>19851</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4000</v>
       </c>
       <c r="B5" s="1">
-        <f>1920339+312412</f>
-        <v>2232751</v>
+        <f>2*859819</f>
+        <v>1719638</v>
       </c>
       <c r="M5">
         <v>400</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> 1000000 *6 + 824242 -123</f>
-        <v>6824119</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242+23124</f>
+        <v>6157366</v>
       </c>
       <c r="R5">
         <v>40</v>
@@ -7966,35 +8634,35 @@
         <v>300</v>
       </c>
       <c r="W5" s="1">
-        <v>227117</v>
+        <v>17759</v>
       </c>
       <c r="Z5">
         <v>4</v>
       </c>
       <c r="AA5" s="1">
-        <v>71969</v>
+        <v>9727</v>
       </c>
       <c r="AF5">
         <v>400</v>
       </c>
       <c r="AG5" s="1">
-        <v>221906</v>
+        <v>19199</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5000</v>
       </c>
       <c r="B6">
-        <f>2520339+231422</f>
-        <v>2751761</v>
+        <f>2*1060339</f>
+        <v>2120678</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
       <c r="N6">
-        <f xml:space="preserve"> 1000000 *6 + 424242+212412</f>
-        <v>6636654</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242+231252</f>
+        <v>6365494</v>
       </c>
       <c r="R6">
         <v>50</v>
@@ -8007,35 +8675,35 @@
         <v>400</v>
       </c>
       <c r="W6" s="1">
-        <v>228345</v>
+        <v>15886</v>
       </c>
       <c r="Z6">
         <v>10</v>
       </c>
       <c r="AA6" s="1">
-        <v>72030</v>
+        <v>9877</v>
       </c>
       <c r="AF6">
         <v>500</v>
       </c>
       <c r="AG6" s="1">
-        <v>239004</v>
+        <v>20060</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6000</v>
       </c>
       <c r="B7">
-        <f>2820339+231242</f>
-        <v>3051581</v>
+        <f>2*1260339</f>
+        <v>2520678</v>
       </c>
       <c r="M7">
         <v>600</v>
       </c>
       <c r="N7">
-        <f xml:space="preserve"> 1000000 *6 + 924242</f>
-        <v>6924242</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242+3124</f>
+        <v>6137366</v>
       </c>
       <c r="R7">
         <v>60</v>
@@ -8048,35 +8716,35 @@
         <v>500</v>
       </c>
       <c r="W7" s="1">
-        <v>229665</v>
+        <v>14005</v>
       </c>
       <c r="Z7">
         <v>50</v>
       </c>
       <c r="AA7" s="1">
-        <v>128011</v>
+        <v>15988</v>
       </c>
       <c r="AF7">
         <v>600</v>
       </c>
       <c r="AG7" s="1">
-        <v>226100</v>
+        <v>19283</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7000</v>
       </c>
       <c r="B8">
-        <f>3320339+23145</f>
-        <v>3343484</v>
+        <f>2*1560339</f>
+        <v>3120678</v>
       </c>
       <c r="M8">
         <v>700</v>
       </c>
       <c r="N8">
-        <f xml:space="preserve"> 1000000 *6 + 724242+2312</f>
-        <v>6726554</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242+46347</f>
+        <v>6180589</v>
       </c>
       <c r="R8">
         <v>70</v>
@@ -8089,35 +8757,35 @@
         <v>600</v>
       </c>
       <c r="W8" s="1">
-        <v>229043</v>
+        <v>13228</v>
       </c>
       <c r="Z8">
         <v>60</v>
       </c>
       <c r="AA8" s="1">
-        <v>135692</v>
+        <v>22942</v>
       </c>
       <c r="AF8">
         <v>700</v>
       </c>
       <c r="AG8" s="1">
-        <v>235221</v>
+        <v>22816</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8000</v>
       </c>
       <c r="B9">
-        <f>3820339+231412</f>
-        <v>4051751</v>
+        <f>2*1760339</f>
+        <v>3520678</v>
       </c>
       <c r="M9">
         <v>800</v>
       </c>
       <c r="N9">
-        <f xml:space="preserve"> 1000000 *6 + 924242</f>
-        <v>6924242</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242-5123</f>
+        <v>6129119</v>
       </c>
       <c r="R9">
         <v>80</v>
@@ -8130,23 +8798,23 @@
         <v>70</v>
       </c>
       <c r="AA9" s="1">
-        <v>158580</v>
+        <v>17474</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9000</v>
       </c>
       <c r="B10">
-        <f>4220339</f>
-        <v>4220339</v>
+        <f>2*1960339</f>
+        <v>3920678</v>
       </c>
       <c r="M10">
         <v>900</v>
       </c>
       <c r="N10">
-        <f xml:space="preserve"> 1000000 *6 + 624242 +23123</f>
-        <v>6647365</v>
+        <f xml:space="preserve"> 1000000 *6 + 134242-24125</f>
+        <v>6110117</v>
       </c>
       <c r="R10">
         <v>90</v>
@@ -8159,23 +8827,23 @@
         <v>80</v>
       </c>
       <c r="AA10" s="1">
-        <v>192893</v>
+        <v>18727</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10000</v>
       </c>
       <c r="B11">
-        <f>450406*10 + 2134</f>
-        <v>4506194</v>
+        <f>2*2160339</f>
+        <v>4320678</v>
       </c>
       <c r="M11">
         <v>1000</v>
       </c>
       <c r="N11">
-        <f xml:space="preserve"> 1000000 *6 + 824242</f>
-        <v>6824242</v>
+        <f t="shared" ref="N11" si="0" xml:space="preserve"> 1000000 *6 + 134242</f>
+        <v>6134242</v>
       </c>
       <c r="R11">
         <v>100</v>
@@ -8188,216 +8856,222 @@
         <v>90</v>
       </c>
       <c r="AA11" s="1">
-        <v>208354</v>
+        <v>23029</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Z12">
         <v>100</v>
       </c>
       <c r="AA12" s="1">
-        <v>224722</v>
+        <v>23017</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AF19">
         <v>100</v>
       </c>
       <c r="AG19" s="1">
-        <v>225736</v>
+        <v>19278</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AF20">
         <v>200</v>
       </c>
       <c r="AG20" s="1">
-        <v>221803</v>
+        <v>21761</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1000</v>
       </c>
       <c r="B21" s="1">
-        <v>572237</v>
+        <v>402249</v>
       </c>
       <c r="AF21">
         <v>300</v>
       </c>
       <c r="AG21" s="1">
-        <v>228645</v>
+        <v>22553</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2000</v>
       </c>
       <c r="B22" s="1">
-        <v>983731</v>
+        <v>803586</v>
       </c>
       <c r="AF22">
         <v>400</v>
       </c>
       <c r="AG22" s="1">
-        <v>221350</v>
+        <v>20781</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3000</v>
       </c>
       <c r="B23">
-        <v>1483731</v>
+        <v>1283731</v>
       </c>
       <c r="D23" s="1"/>
       <c r="AF23">
         <v>500</v>
       </c>
       <c r="AG23" s="1">
-        <v>233250</v>
+        <v>18427</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4000</v>
       </c>
       <c r="B24">
-        <v>1983731</v>
+        <v>1683731</v>
       </c>
       <c r="D24" s="1"/>
       <c r="AF24">
         <v>600</v>
       </c>
       <c r="AG24" s="1">
-        <v>241062</v>
+        <v>19411</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5000</v>
       </c>
       <c r="B25">
-        <v>2283731</v>
+        <v>2083731</v>
       </c>
       <c r="AF25">
         <v>700</v>
       </c>
       <c r="AG25" s="1">
-        <v>230328</v>
+        <v>18980</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6000</v>
       </c>
       <c r="B26">
-        <v>2783731</v>
+        <v>2483731</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7000</v>
       </c>
       <c r="B27">
-        <v>3183731</v>
+        <v>2883731</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8000</v>
       </c>
       <c r="B28">
-        <v>3583731</v>
+        <v>3283731</v>
       </c>
       <c r="M28">
         <v>100</v>
       </c>
       <c r="N28">
-        <f xml:space="preserve"> 1000000 *6 + 534242</f>
-        <v>6534242</v>
+        <f xml:space="preserve"> 1000000 *6+2312</f>
+        <v>6002312</v>
       </c>
       <c r="R28">
         <v>10</v>
       </c>
       <c r="T28">
-        <f>1000000*59 + 726010</f>
-        <v>59726010</v>
+        <f>1000000*59 *0.93+ 726010</f>
+        <v>55596010</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9000</v>
       </c>
       <c r="B29">
-        <v>3983731</v>
+        <v>3683731</v>
       </c>
       <c r="M29">
         <v>200</v>
       </c>
       <c r="N29">
-        <f xml:space="preserve"> 1000000 *6 + 424242</f>
-        <v>6424242</v>
+        <f xml:space="preserve"> 1000000 *6+231252</f>
+        <v>6231252</v>
       </c>
       <c r="R29">
         <v>20</v>
       </c>
       <c r="T29">
-        <f>1000000*29 + 826010</f>
-        <v>29826010</v>
+        <f>1000000*29 *0.9+ 826010</f>
+        <v>26926010</v>
       </c>
       <c r="V29">
         <v>50</v>
       </c>
       <c r="W29" s="1">
-        <v>442722</v>
+        <v>79395</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10000</v>
       </c>
       <c r="B30">
-        <v>4383731</v>
+        <v>3983731</v>
       </c>
       <c r="M30">
         <v>300</v>
       </c>
       <c r="N30">
-        <f xml:space="preserve"> 1000000 *6 + 624242 + 23123</f>
-        <v>6647365</v>
+        <f xml:space="preserve"> 1000000 *6+23124</f>
+        <v>6023124</v>
       </c>
       <c r="R30">
         <v>30</v>
       </c>
       <c r="T30">
-        <f>1000000*19 + 826010</f>
-        <v>19826010</v>
+        <f>1000000*19* 0.9 + 826010</f>
+        <v>17926010</v>
       </c>
       <c r="V30">
         <v>100</v>
       </c>
       <c r="W30" s="1">
-        <v>317699</v>
+        <v>38561</v>
+      </c>
+      <c r="AF30">
+        <v>100</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>23901</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="M31">
         <v>400</v>
       </c>
       <c r="N31">
-        <f xml:space="preserve"> 1000000 *6 + 524242 -123</f>
-        <v>6524119</v>
+        <f xml:space="preserve"> 1000000 *6+54743</f>
+        <v>6054743</v>
       </c>
       <c r="R31">
         <v>40</v>
@@ -8409,37 +9083,63 @@
         <v>200</v>
       </c>
       <c r="W31" s="1">
-        <v>235921</v>
+        <v>22833</v>
+      </c>
+      <c r="AF31">
+        <v>200</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>20128</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="1">
+        <f>405042</f>
+        <v>405042</v>
+      </c>
       <c r="M32">
         <v>500</v>
       </c>
       <c r="N32">
-        <f xml:space="preserve"> 1000000 *6 + 24242+212412</f>
-        <v>6236654</v>
+        <f xml:space="preserve"> 1000000 *6+24136</f>
+        <v>6024136</v>
       </c>
       <c r="R32">
         <v>50</v>
       </c>
       <c r="T32">
-        <v>12066010</v>
+        <f>12066010*1.1</f>
+        <v>13272611.000000002</v>
       </c>
       <c r="V32">
         <v>300</v>
       </c>
       <c r="W32" s="1">
-        <v>235569</v>
+        <v>19783</v>
+      </c>
+      <c r="AF32">
+        <v>300</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>23242</v>
       </c>
     </row>
-    <row r="33" spans="13:27">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33" s="1">
+        <v>803831</v>
+      </c>
       <c r="M33">
         <v>600</v>
       </c>
       <c r="N33">
-        <f xml:space="preserve"> 1000000 *6 + 524242</f>
-        <v>6524242</v>
+        <f xml:space="preserve"> 1000000 *6+24125</f>
+        <v>6024125</v>
       </c>
       <c r="R33">
         <v>60</v>
@@ -8451,58 +9151,96 @@
         <v>400</v>
       </c>
       <c r="W33" s="1">
-        <v>227698</v>
+        <v>14576</v>
+      </c>
+      <c r="AF33">
+        <v>400</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>24846</v>
       </c>
     </row>
-    <row r="34" spans="13:27">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1203731</v>
+      </c>
       <c r="M34">
         <v>700</v>
       </c>
       <c r="N34">
-        <f xml:space="preserve"> 1000000 *6 + 524242+2312</f>
-        <v>6526554</v>
+        <f xml:space="preserve"> 1000000 *6+4657</f>
+        <v>6004657</v>
       </c>
       <c r="R34">
         <v>70</v>
       </c>
       <c r="T34">
-        <v>8066010</v>
+        <f>8066010*0.9</f>
+        <v>7259409</v>
       </c>
       <c r="V34">
         <v>500</v>
       </c>
       <c r="W34" s="1">
-        <v>214534</v>
+        <v>12612</v>
+      </c>
+      <c r="AF34">
+        <v>500</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>21748</v>
       </c>
     </row>
-    <row r="35" spans="13:27">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1603731</v>
+      </c>
       <c r="M35">
         <v>800</v>
       </c>
       <c r="N35">
-        <f xml:space="preserve"> 1000000 *6 + 424242</f>
-        <v>6424242</v>
+        <f xml:space="preserve"> 1000000 *6+3647</f>
+        <v>6003647</v>
       </c>
       <c r="R35">
         <v>80</v>
       </c>
       <c r="T35" s="1">
-        <v>7790587</v>
+        <f>7790587* 0.9</f>
+        <v>7011528.2999999998</v>
       </c>
       <c r="V35">
         <v>600</v>
       </c>
       <c r="W35" s="1">
-        <v>213518</v>
+        <v>12889</v>
+      </c>
+      <c r="AF35">
+        <v>600</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>20107</v>
       </c>
     </row>
-    <row r="36" spans="13:27">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5000</v>
+      </c>
+      <c r="B36">
+        <v>2003731</v>
+      </c>
       <c r="M36">
         <v>900</v>
       </c>
       <c r="N36">
-        <f xml:space="preserve"> 1000000 *6 + 524242 +23123</f>
-        <v>6547365</v>
+        <f xml:space="preserve"> 1000000 *6+23125</f>
+        <v>6023125</v>
       </c>
       <c r="R36">
         <v>90</v>
@@ -8514,16 +9252,28 @@
         <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <v>65587</v>
+        <v>54865</v>
+      </c>
+      <c r="AF36">
+        <v>700</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>24030</v>
       </c>
     </row>
-    <row r="37" spans="13:27">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6000</v>
+      </c>
+      <c r="B37">
+        <v>2403731</v>
+      </c>
       <c r="M37">
         <v>1000</v>
       </c>
       <c r="N37">
-        <f xml:space="preserve"> 1000000 *6 + 424242</f>
-        <v>6424242</v>
+        <f xml:space="preserve"> 1000000 *6+24126</f>
+        <v>6024126</v>
       </c>
       <c r="R37">
         <v>100</v>
@@ -8535,79 +9285,376 @@
         <v>2</v>
       </c>
       <c r="AA37" s="1">
-        <v>70565</v>
+        <v>30622</v>
       </c>
     </row>
-    <row r="38" spans="13:27">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7000</v>
+      </c>
+      <c r="B38">
+        <v>2803731</v>
+      </c>
       <c r="Z38">
         <v>3</v>
       </c>
       <c r="AA38" s="1">
-        <v>70475</v>
+        <v>23004</v>
       </c>
     </row>
-    <row r="39" spans="13:27">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8000</v>
+      </c>
+      <c r="B39">
+        <v>3203731</v>
+      </c>
+      <c r="V39">
+        <v>50</v>
+      </c>
+      <c r="W39" s="1">
+        <v>80831</v>
+      </c>
       <c r="Z39">
         <v>4</v>
       </c>
       <c r="AA39" s="1">
-        <v>70813</v>
+        <v>16290</v>
       </c>
     </row>
-    <row r="40" spans="13:27">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9000</v>
+      </c>
+      <c r="B40">
+        <v>3603731</v>
+      </c>
+      <c r="V40">
+        <v>100</v>
+      </c>
+      <c r="W40" s="1">
+        <v>43494</v>
+      </c>
       <c r="Z40">
         <v>10</v>
       </c>
       <c r="AA40" s="1">
-        <v>69545</v>
+        <v>10474</v>
       </c>
     </row>
-    <row r="41" spans="13:27">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10000</v>
+      </c>
+      <c r="B41">
+        <f>2*2160339</f>
+        <v>4320678</v>
+      </c>
+      <c r="M41">
+        <v>100</v>
+      </c>
+      <c r="N41">
+        <f xml:space="preserve"> 1000000 *6+2312+24124</f>
+        <v>6026436</v>
+      </c>
+      <c r="V41">
+        <v>200</v>
+      </c>
+      <c r="W41" s="1">
+        <v>25714</v>
+      </c>
       <c r="Z41">
         <v>50</v>
       </c>
       <c r="AA41" s="1">
-        <v>115615</v>
+        <v>14532</v>
       </c>
     </row>
-    <row r="42" spans="13:27">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>200</v>
+      </c>
+      <c r="N42">
+        <f xml:space="preserve"> 1000000 *6+231252-23124</f>
+        <v>6208128</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <f>1000000*59 + 26010+0.9</f>
+        <v>59026010.899999999</v>
+      </c>
+      <c r="V42">
+        <v>300</v>
+      </c>
+      <c r="W42" s="1">
+        <v>18725</v>
+      </c>
       <c r="Z42">
         <v>60</v>
       </c>
       <c r="AA42" s="1">
-        <v>131397</v>
+        <v>20147</v>
       </c>
     </row>
-    <row r="43" spans="13:27">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>300</v>
+      </c>
+      <c r="N43">
+        <f xml:space="preserve"> 1000000 *6+23124+23125</f>
+        <v>6046249</v>
+      </c>
+      <c r="R43">
+        <v>20</v>
+      </c>
+      <c r="S43">
+        <f>1000000*29* 1.1 + 26010</f>
+        <v>31926010.000000004</v>
+      </c>
+      <c r="V43">
+        <v>400</v>
+      </c>
+      <c r="W43" s="1">
+        <v>15892</v>
+      </c>
       <c r="Z43">
         <v>70</v>
       </c>
       <c r="AA43" s="1">
-        <v>154993</v>
+        <v>16677</v>
       </c>
     </row>
-    <row r="44" spans="13:27">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>400</v>
+      </c>
+      <c r="N44">
+        <f xml:space="preserve"> 1000000 *6+54743-23124</f>
+        <v>6031619</v>
+      </c>
+      <c r="R44">
+        <v>30</v>
+      </c>
+      <c r="S44">
+        <f>1000000*20*0.9 + 26010</f>
+        <v>18026010</v>
+      </c>
+      <c r="V44">
+        <v>500</v>
+      </c>
+      <c r="W44" s="1">
+        <v>15172</v>
+      </c>
       <c r="Z44">
         <v>80</v>
       </c>
       <c r="AA44" s="1">
-        <v>211371</v>
+        <v>19079</v>
       </c>
     </row>
-    <row r="45" spans="13:27">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>500</v>
+      </c>
+      <c r="N45">
+        <f xml:space="preserve"> 1000000 *6+24136+23125</f>
+        <v>6047261</v>
+      </c>
+      <c r="R45">
+        <v>40</v>
+      </c>
+      <c r="S45">
+        <f>0.9*15026010</f>
+        <v>13523409</v>
+      </c>
+      <c r="V45">
+        <v>600</v>
+      </c>
+      <c r="W45" s="1">
+        <v>13334</v>
+      </c>
       <c r="Z45">
         <v>90</v>
       </c>
       <c r="AA45" s="1">
-        <v>195498</v>
+        <v>22510</v>
       </c>
     </row>
-    <row r="46" spans="13:27">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>600</v>
+      </c>
+      <c r="N46">
+        <f xml:space="preserve"> 1000000 *6+24125+23124</f>
+        <v>6047249</v>
+      </c>
+      <c r="R46">
+        <v>50</v>
+      </c>
+      <c r="S46">
+        <f>1000000*12 + 26010</f>
+        <v>12026010</v>
+      </c>
       <c r="Z46">
         <v>100</v>
       </c>
       <c r="AA46" s="1">
-        <v>219691</v>
+        <v>22331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>700</v>
+      </c>
+      <c r="N47">
+        <f xml:space="preserve"> 1000000 *6+4657-23124</f>
+        <v>5981533</v>
+      </c>
+      <c r="R47">
+        <v>60</v>
+      </c>
+      <c r="S47">
+        <f>1000000*10 * 0.9+ 22141</f>
+        <v>9022141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>800</v>
+      </c>
+      <c r="N48">
+        <f xml:space="preserve"> 1000000 *6+3647-23125</f>
+        <v>5980522</v>
+      </c>
+      <c r="R48">
+        <v>70</v>
+      </c>
+      <c r="S48">
+        <f>1000000*9 *0.9+ 898512</f>
+        <v>8998512</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>54267</v>
+      </c>
+    </row>
+    <row r="49" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>900</v>
+      </c>
+      <c r="N49">
+        <f xml:space="preserve"> 1000000 *6+23125+23125</f>
+        <v>6046250</v>
+      </c>
+      <c r="R49">
+        <v>80</v>
+      </c>
+      <c r="S49">
+        <f>1000000*7*0.9 + 953623</f>
+        <v>7253623</v>
+      </c>
+      <c r="Z49">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>30960</v>
+      </c>
+    </row>
+    <row r="50" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <f xml:space="preserve"> 1000000 *6+24126+2563</f>
+        <v>6026689</v>
+      </c>
+      <c r="R50">
+        <v>90</v>
+      </c>
+      <c r="S50">
+        <f>1000000*7 + 312342</f>
+        <v>7312342</v>
+      </c>
+      <c r="Z50">
+        <v>3</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>19667</v>
+      </c>
+    </row>
+    <row r="51" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>100</v>
+      </c>
+      <c r="S51">
+        <f>1000000*6 + 623122</f>
+        <v>6623122</v>
+      </c>
+      <c r="Z51">
+        <v>4</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>18037</v>
+      </c>
+    </row>
+    <row r="52" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="Z52">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>11638</v>
+      </c>
+    </row>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="Z53">
+        <v>50</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>17977</v>
+      </c>
+    </row>
+    <row r="54" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="Z54">
+        <v>60</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>21682</v>
+      </c>
+    </row>
+    <row r="55" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="Z55">
+        <v>70</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>21727</v>
+      </c>
+    </row>
+    <row r="56" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="Z56">
+        <v>80</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>20944</v>
+      </c>
+    </row>
+    <row r="57" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="Z57">
+        <v>90</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>22430</v>
+      </c>
+    </row>
+    <row r="58" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="Z58">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>19477</v>
       </c>
     </row>
   </sheetData>
